--- a/combine_effort/1. 07-nov-2021 to predict 14-nov-20201/files/auto-correlation1.xlsx
+++ b/combine_effort/1. 07-nov-2021 to predict 14-nov-20201/files/auto-correlation1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laolu projects\machine_learning\combine_effort\31 october\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laolu projects\machine_learning\combine_effort\1. 07-nov-2021 to predict 14-nov-20201\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A44A737-E6DD-471D-9FEC-519F25832ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4D98D3-172A-4EC7-BC90-40207FFA8F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pips calculation" sheetId="35" r:id="rId1"/>
@@ -630,7 +630,7 @@
   <dimension ref="B1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
         <v>1.0339700000000001</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f>G6-D6</f>
         <v>-5.6399999999998673E-3</v>
       </c>
       <c r="J6">
